--- a/biology/Médecine/1276_en_santé_et_médecine/1276_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1276_en_santé_et_médecine/1276_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1276_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1276_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1276 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1276_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1276_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La maladrerie de Saint-Lubin, près de Chevreuse, en Hurepoix, est mentionnée dans un acte de donation de Guy de Lévis[1].
-À Landau, dans le Palatinat, Frédéric de Linange donne un terrain aux augustins de l'ordre hospitalier de Steige (de) pour qu'ils y édifient un hospice[2].
-La maison-Dieu de Croutelle, « placée sur la voie romaine, utilisée par les pélerins […] et qui sera réunie à l'hôtel-Dieu de Poitiers en 1695[3] », est citée dans un acte de l’abbaye de Fontaine-le-Comte[4].
-La maison-Dieu fondée en 1136 à Bruère, près de Saint-Amand, dans le Bourbonnais, prend le nom d'abbaye de Noirlac[5].
-Fondation de l'hospice Saint-Julien à Bruges, en Flandre, « en faveur des pèlerins passagers[6] ».
-Première mention de St. Bartholomew's Hospital à Hythe dans le Kent en Angleterre[7].
-À Bergen, alors capitale de la Norvège, la léproserie (ospitale leprosorum) Sainte-Catherine, fondée en 1266 sous le règne de Magnus VI, est reconvertie en un hôpital des pauvres (ospitale pauperum) destiné aux femmes[8],[9].
-En Provence, « l'hôpital Saint-Jacques d'Aix, l'un des plus importants, a une capacité d'une trentaine de lits[10] ».
-Cent lépreux vivent à l'hôpital Saint-Nicolas (Hospital of St. Nicholas) de Harbledown près de Cantorbéry dans le Kent en Angleterre[11].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La maladrerie de Saint-Lubin, près de Chevreuse, en Hurepoix, est mentionnée dans un acte de donation de Guy de Lévis.
+À Landau, dans le Palatinat, Frédéric de Linange donne un terrain aux augustins de l'ordre hospitalier de Steige (de) pour qu'ils y édifient un hospice.
+La maison-Dieu de Croutelle, « placée sur la voie romaine, utilisée par les pélerins […] et qui sera réunie à l'hôtel-Dieu de Poitiers en 1695 », est citée dans un acte de l’abbaye de Fontaine-le-Comte.
+La maison-Dieu fondée en 1136 à Bruère, près de Saint-Amand, dans le Bourbonnais, prend le nom d'abbaye de Noirlac.
+Fondation de l'hospice Saint-Julien à Bruges, en Flandre, « en faveur des pèlerins passagers ».
+Première mention de St. Bartholomew's Hospital à Hythe dans le Kent en Angleterre.
+À Bergen, alors capitale de la Norvège, la léproserie (ospitale leprosorum) Sainte-Catherine, fondée en 1266 sous le règne de Magnus VI, est reconvertie en un hôpital des pauvres (ospitale pauperum) destiné aux femmes,.
+En Provence, « l'hôpital Saint-Jacques d'Aix, l'un des plus importants, a une capacité d'une trentaine de lits ».
+Cent lépreux vivent à l'hôpital Saint-Nicolas (Hospital of St. Nicholas) de Harbledown près de Cantorbéry dans le Kent en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1276_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1276_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,13 +563,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Guinard, médecin en Roussillon[12].
-Fl. Jean, médecin, recteur de l'église de Lombron, dans le Maine[12].
-Fl. Jean d'Espinasse, médecin d'Elie, seigneur de La Vergne[12].
-1276-1277 : fl. Pierre, barbier à Poitiers[13].
-Vers 1276-1300 : fl. Guillaume de Rouen, médecin à Angers[12].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Guinard, médecin en Roussillon.
+Fl. Jean, médecin, recteur de l'église de Lombron, dans le Maine.
+Fl. Jean d'Espinasse, médecin d'Elie, seigneur de La Vergne.
+1276-1277 : fl. Pierre, barbier à Poitiers.
+Vers 1276-1300 : fl. Guillaume de Rouen, médecin à Angers.</t>
         </is>
       </c>
     </row>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1276_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1276_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +599,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Avant le 25 juillet : Julien (né à une date inconnue), médecin au pénitencier de Beauvais[13].
-Ibn Andras (né à une date inconnue), médecin andalou, professeur à Béjaïa, en Kabylie[14].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Avant le 25 juillet : Julien (né à une date inconnue), médecin au pénitencier de Beauvais.
+Ibn Andras (né à une date inconnue), médecin andalou, professeur à Béjaïa, en Kabylie.</t>
         </is>
       </c>
     </row>
